--- a/cases/case_exmple.xlsx
+++ b/cases/case_exmple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,15 +102,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/s4/bindMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账户相关接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/users.accounts.getDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s5/create_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"err_code":"17711794026","err_msg":"4883"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"17711794026","code":"4883"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/s4/bindMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
+    <t>payload.uid=312;err_code=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,43 +150,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账户相关接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s4/users.accounts.getDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"active":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s5/create_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"err_code":"17711794027","err_msg":"4883"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"17711794027","code":"4883"}</t>
+    <t>select * from convert_verify_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"active":$err_code}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -596,20 +600,20 @@
         <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18">
@@ -623,22 +627,22 @@
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18">
+    <row r="4" spans="1:14" ht="28.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -652,16 +656,22 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18">
@@ -684,7 +694,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="27">
@@ -695,19 +705,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18">

--- a/cases/case_exmple.xlsx
+++ b/cases/case_exmple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,67 +98,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/s4/bindMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账户相关接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/users.accounts.getDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s5/create_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"err_code":"17711794026","err_msg":"4883"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payload.uid=312;err_code=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from t_user_verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from convert_verify_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/s4/login.mobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/s4/bindMobile</t>
+    <t>{"phone":"17711794026","code":"4883"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"active":$err_code}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账户相关接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s4/users.accounts.getDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s5/create_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"err_code":"17711794026","err_msg":"4883"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"17711794026","code":"4883"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payload.uid=312;err_code=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from t_user_verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from convert_verify_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"active":$err_code}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -600,20 +604,20 @@
         <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18">
@@ -627,19 +631,19 @@
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="28.5">
@@ -653,25 +657,25 @@
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2">
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18">
@@ -694,7 +698,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="27">
@@ -705,25 +709,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18">
